--- a/担当分担一覧.xlsx
+++ b/担当分担一覧.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24820" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="担当分担一覧" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>【HP作成 担当分担一覧】</t>
     <rPh sb="3" eb="5">
@@ -484,6 +484,20 @@
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0614鈴木追記：??</t>
+    <rPh sb="4" eb="6">
+      <t>スズキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -673,66 +687,66 @@
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1106,27 +1120,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="23">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="19" thickBot="1">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
@@ -1134,437 +1148,441 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="19" thickTop="1">
-      <c r="B4" s="6">
+      <c r="B4" s="2">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="4"/>
       <c r="I4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="7">
+      <c r="B5" s="3">
         <f t="shared" ref="B5:B33" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="5"/>
       <c r="I5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="9"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="5"/>
       <c r="I6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="9"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="7">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="9"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="31">
-      <c r="B10" s="7">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="9"/>
+      <c r="F10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="7">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="9"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="7">
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="9"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="7">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="9"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="7">
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="9"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="7">
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="9"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="7">
+      <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="9"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="2:7" ht="44">
-      <c r="B17" s="7">
+      <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="9" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="7">
+      <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="9"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="2:7" ht="31">
-      <c r="B19" s="7">
+      <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="10" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="31">
-      <c r="B20" s="7">
+      <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="9"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="7">
+      <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="9"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="7">
+      <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="9"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="7">
+      <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="9"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="2:7" ht="31" customHeight="1">
-      <c r="B24" s="7">
+      <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="9"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="7">
+      <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="10" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="9"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="13">
+      <c r="B26" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="14" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="13">
+      <c r="B27" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="14"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="13">
+      <c r="B28" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="14"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="13">
+      <c r="B29" s="7">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="14"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="7">
+      <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="9"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="7">
+      <c r="B31" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="9"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="7">
+      <c r="B32" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="9"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="7">
+      <c r="B33" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="9"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
